--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC9329-1E38-4961-9508-075919296CA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9B83B-452E-4F79-ADFB-D29443022564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>event_query_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,28 +565,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="8" width="28" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="10.21875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="3"/>
+    <col min="13" max="13" width="10.25" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,48 +609,48 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,7 +683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9B83B-452E-4F79-ADFB-D29443022564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB04FEE-5D9C-424C-828D-AA9290340A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,27 +47,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> testers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
+    <t>event_query_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/posts/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,23 +91,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"format": "json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狗高清壁纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.66mz8.com/api/rand.sgimg.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_query_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_type</t>
+    <t>测试直接请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_create_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_upload_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_query_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.anonfiles.com/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"foo",  "body":"${dev}","userId":1     }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${test}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":"D:\\0000000000_test\\666.txt"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,22 +202,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -149,18 +215,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,37 +288,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,106 +668,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="3"/>
-    <col min="13" max="13" width="10.25" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="3" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50" style="3" customWidth="1"/>
+    <col min="9" max="9" width="53" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="48.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="56.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="D5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3">
-        <v>200</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>11</v>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N3" xr:uid="{EB84FF36-38F5-4125-9AD9-FE0D63511C03}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://jsonplaceholder.typicode.com/posts/1" xr:uid="{BF89DD0A-F819-4EAD-954F-2F02F0BAB918}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{C1A3CE22-BF81-4593-BD3D-E714C52391F8}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{E8F65DC9-8565-4A10-BE6F-D55AC21342B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -670,7 +853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,7 +866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB04FEE-5D9C-424C-828D-AA9290340A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497AA3B-EE0A-49C7-9A48-5FCE4A0990E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试直接请求</t>
+    <t>event_create_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_upload_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_query_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.anonfiles.com/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"postId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"foo",  "body":"${dev}","userId":1     }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${test}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":"D:\\0000000000_test\\666.txt"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,8 +155,47 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试直接请求</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试全局变量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试文件上传</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>测试</t>
@@ -116,80 +211,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>测试文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_create_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_upload_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_query_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://api.anonfiles.com/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"postId":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试全局变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"title":"foo",  "body":"${dev}","userId":1     }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${test}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file":"D:\\0000000000_test\\666.txt"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,21 +254,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -249,16 +261,16 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -292,41 +304,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -672,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -683,7 +686,7 @@
     <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
@@ -695,7 +698,7 @@
     <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -724,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -739,99 +742,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="b">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\python\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497AA3B-EE0A-49C7-9A48-5FCE4A0990E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58D7E4-CED5-4FA0-B8A9-13BBF28B4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,14 @@
       </rPr>
       <t>post</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert 200 in pm.response.get('status_code')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"r_code":{"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +338,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -673,32 +684,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="49.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="48.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="56.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="42.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="22.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="48.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="56.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -762,8 +773,11 @@
       <c r="I2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -785,8 +799,11 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="N3" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -812,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -854,7 +871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,7 +884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\python\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C58D7E4-CED5-4FA0-B8A9-13BBF28B4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168BF70-0256-4A55-87B5-B10B65A6B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>{"r_code":{"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["assert pm.response.get('status_code') == IsInt"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"response_code": {"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -828,6 +836,9 @@
       <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -850,6 +861,9 @@
       </c>
       <c r="L5" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\python\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168BF70-0256-4A55-87B5-B10B65A6B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A54E5-E7D6-4E16-A81D-9CBF067240BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,19 +212,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assert 200 in pm.response.get('status_code')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"r_code":{"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>["assert pm.response.get('status_code') == IsInt"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"response_code": {"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert 200 == pm.response.get('status_code')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"casual":{"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,30 +694,30 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="65.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="49.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="48.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="56.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="42.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="3"/>
+    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="48.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="56.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -782,10 +782,10 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="N2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -808,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -837,10 +837,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -863,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,7 +898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
+++ b/fastpt/data/test_data/excel_data/APITestCaseTEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproject\python\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A54E5-E7D6-4E16-A81D-9CBF067240BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752801E7-5129-4479-8293-8E4F4351A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>${test}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file":"D:\\0000000000_test\\666.txt"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>{"casual":{"value":200,"type":"eq","jsonpath":"$.status_code"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":["D:\\0000000000_test\\666.txt","D:\\0000000000_test\\888.text}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,30 +694,30 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="3" customWidth="1"/>
-    <col min="7" max="7" width="65.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50" style="3" customWidth="1"/>
     <col min="9" max="9" width="53" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="49.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="48.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="56.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="42.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="22.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="49.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="48.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="56.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="3" t="s">
@@ -782,10 +782,10 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="N2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
@@ -808,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -837,10 +837,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -848,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>21</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,7 +898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
